--- a/data/league_data/spain/20/spain_defending.xlsx
+++ b/data/league_data/spain/20/spain_defending.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BF5D463-59D4-CE42-8D28-55E8736869A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D79A29-79D7-434D-8D9F-E91047DFB06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="591">
   <si>
     <t>Blocks</t>
   </si>
@@ -1787,12 +1787,18 @@
   </si>
   <si>
     <t>Manuel Garrido</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2650,14 +2656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -2691,7 +2697,7 @@
     <col min="31" max="31" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2786,7 +2792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2881,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3259,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3447,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3732,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3827,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3922,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4017,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4112,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4207,7 +4213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4300,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4395,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4490,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4585,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4680,7 +4686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4775,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4870,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4965,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5060,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5155,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5250,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5345,7 +5351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5440,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5535,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5630,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5725,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5820,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5915,7 +5921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6105,7 +6111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6200,7 +6206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6295,7 +6301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6390,7 +6396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6485,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6580,7 +6586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6768,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6863,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6958,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7053,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7148,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7243,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7338,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7433,12 +7439,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>117</v>
+        <v>590</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>28</v>
@@ -7528,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7623,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7718,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7813,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7908,7 +7914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8003,7 +8009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8098,7 +8104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8193,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8288,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8383,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8478,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8573,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8668,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8763,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8858,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8953,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9048,7 +9054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9143,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9238,7 +9244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9333,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9428,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9523,7 +9529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9618,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9713,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9808,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9903,7 +9909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9998,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -10093,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10188,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10283,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10378,7 +10384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10473,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10568,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10663,7 +10669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10758,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10853,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10948,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -11043,7 +11049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -11138,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -11233,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11328,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11423,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11518,7 +11524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11613,7 +11619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -11708,7 +11714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11803,7 +11809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -11898,7 +11904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11993,7 +11999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -12088,7 +12094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -12183,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -12278,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12373,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12468,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12563,7 +12569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -12658,7 +12664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -12753,7 +12759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -12848,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -12943,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -13038,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -13133,7 +13139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -13228,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -13323,7 +13329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13418,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13513,7 +13519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13608,7 +13614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -13703,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -13798,7 +13804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -13893,7 +13899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -13988,7 +13994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -14083,7 +14089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -14178,7 +14184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -14273,7 +14279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -14368,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -14463,7 +14469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -14558,7 +14564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -14653,7 +14659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -14748,7 +14754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -14843,7 +14849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -14938,7 +14944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -15033,7 +15039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -15128,7 +15134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -15223,7 +15229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -15318,7 +15324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -15413,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15508,7 +15514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -15603,7 +15609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -15698,7 +15704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -15793,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -15888,7 +15894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -15983,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -16078,7 +16084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -16173,7 +16179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -16268,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -16363,7 +16369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -16458,7 +16464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16553,7 +16559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -16648,7 +16654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -16743,7 +16749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -16838,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -16933,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -17028,7 +17034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -17123,7 +17129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -17218,7 +17224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -17313,7 +17319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -17408,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -17503,7 +17509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -17598,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -17693,7 +17699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -17788,7 +17794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -17883,7 +17889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -17978,7 +17984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -18073,7 +18079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -18168,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -18263,7 +18269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -18358,7 +18364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -18453,7 +18459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -18548,7 +18554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -18643,7 +18649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -18738,7 +18744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -18833,7 +18839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -18928,7 +18934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -19023,7 +19029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -19118,7 +19124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -19213,7 +19219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -19308,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -19403,7 +19409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -19498,7 +19504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -19593,7 +19599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -19688,7 +19694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -19783,7 +19789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -19878,7 +19884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -19973,7 +19979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -20068,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -20163,7 +20169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -20258,7 +20264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -20353,7 +20359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -20448,7 +20454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -20543,7 +20549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -20638,7 +20644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -20733,7 +20739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -20828,7 +20834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -20923,7 +20929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -21018,7 +21024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -21113,7 +21119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -21208,7 +21214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -21303,7 +21309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -21398,7 +21404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -21493,7 +21499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -21588,7 +21594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -21683,7 +21689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -21778,7 +21784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -21873,7 +21879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -21968,7 +21974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -22063,7 +22069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -22158,7 +22164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -22253,7 +22259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -22348,7 +22354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -22443,7 +22449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -22538,7 +22544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -22633,7 +22639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -22728,7 +22734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -22823,7 +22829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -22918,7 +22924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -23013,7 +23019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -23108,7 +23114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -23203,7 +23209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -23298,7 +23304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -23393,7 +23399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -23488,7 +23494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -23583,7 +23589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -23678,7 +23684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -23773,7 +23779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -23868,7 +23874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -23963,7 +23969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -24058,7 +24064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -24153,7 +24159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -24246,7 +24252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -24341,7 +24347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -24436,7 +24442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -24531,7 +24537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -24626,7 +24632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -24721,7 +24727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -24816,7 +24822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -24911,7 +24917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -25006,7 +25012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -25101,7 +25107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -25196,7 +25202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -25291,7 +25297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -25386,7 +25392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -25481,7 +25487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -25576,7 +25582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -25671,7 +25677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -25766,7 +25772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -25861,7 +25867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -25956,7 +25962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -26051,7 +26057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -26146,7 +26152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -26241,7 +26247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -26336,7 +26342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -26431,7 +26437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -26526,7 +26532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -26621,7 +26627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -26716,7 +26722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -26811,7 +26817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -26906,7 +26912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -27001,7 +27007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -27096,7 +27102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -27191,7 +27197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -27286,7 +27292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -27381,7 +27387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -27476,7 +27482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -27571,7 +27577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -27666,7 +27672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -27761,7 +27767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -27856,7 +27862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -27951,7 +27957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -28046,7 +28052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -28139,7 +28145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -28234,7 +28240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -28329,7 +28335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -28424,7 +28430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -28519,7 +28525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -28614,7 +28620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -28709,7 +28715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -28804,7 +28810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -28899,7 +28905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -28994,7 +29000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -29089,7 +29095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -29184,7 +29190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -29279,7 +29285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -29374,7 +29380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -29469,7 +29475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -29564,7 +29570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -29659,7 +29665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -29754,7 +29760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -29849,7 +29855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -29944,7 +29950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -30039,7 +30045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -30134,7 +30140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -30229,7 +30235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -30324,7 +30330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -30419,7 +30425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -30514,7 +30520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -30609,7 +30615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -30704,7 +30710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -30799,7 +30805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -30894,7 +30900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -30989,7 +30995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -31084,7 +31090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -31179,7 +31185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -31274,7 +31280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -31369,7 +31375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -31464,7 +31470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -31559,7 +31565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -31654,7 +31660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -31749,7 +31755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -31844,7 +31850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -31939,7 +31945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -32034,7 +32040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -32129,7 +32135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -32224,7 +32230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -32319,7 +32325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -32414,7 +32420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -32509,7 +32515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -32604,7 +32610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -32699,7 +32705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -32794,7 +32800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -32889,7 +32895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -32980,7 +32986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -33075,7 +33081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -33170,7 +33176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -33265,7 +33271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -33360,7 +33366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -33455,7 +33461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -33550,7 +33556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -33645,7 +33651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -33740,7 +33746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -33835,7 +33841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -33930,7 +33936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -34025,7 +34031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -34120,7 +34126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -34215,7 +34221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -34310,7 +34316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -34405,7 +34411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -34500,7 +34506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -34595,7 +34601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -34690,7 +34696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -34785,7 +34791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -34880,7 +34886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -34975,7 +34981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -35070,7 +35076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -35165,7 +35171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -35260,7 +35266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -35355,7 +35361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -35450,7 +35456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -35545,7 +35551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -35640,7 +35646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -35735,7 +35741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -35830,7 +35836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -35925,7 +35931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -36020,7 +36026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -36115,7 +36121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -36210,7 +36216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -36305,7 +36311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -36400,7 +36406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -36495,7 +36501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -36590,7 +36596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -36685,7 +36691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -36780,7 +36786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -36875,7 +36881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -36970,7 +36976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -37065,7 +37071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -37160,7 +37166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -37255,7 +37261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -37350,7 +37356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -37445,7 +37451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -37540,7 +37546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -37635,7 +37641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -37730,7 +37736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -37825,7 +37831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -37920,7 +37926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -38015,7 +38021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -38110,7 +38116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -38205,7 +38211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -38300,7 +38306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -38395,7 +38401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -38490,7 +38496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -38585,7 +38591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -38680,7 +38686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -38775,7 +38781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -38870,7 +38876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -38965,7 +38971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -39060,7 +39066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -39155,7 +39161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -39250,7 +39256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -39345,7 +39351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -39440,7 +39446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -39535,7 +39541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -39630,7 +39636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -39721,7 +39727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -39816,7 +39822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -39911,7 +39917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -40006,7 +40012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -40097,7 +40103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -40192,7 +40198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -40287,7 +40293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -40382,7 +40388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -40477,7 +40483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -40572,7 +40578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -40667,7 +40673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -40762,7 +40768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -40857,7 +40863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -40952,7 +40958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -41047,7 +41053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -41142,7 +41148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -41237,7 +41243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -41332,7 +41338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -41427,7 +41433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -41522,7 +41528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -41617,12 +41623,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>280</v>
+        <v>589</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>28</v>
@@ -41712,7 +41718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -41805,7 +41811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -41900,7 +41906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -41993,7 +41999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -42088,7 +42094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -42183,7 +42189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -42278,7 +42284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -42373,7 +42379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -42468,7 +42474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -42563,7 +42569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -42658,7 +42664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -42753,7 +42759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -42848,7 +42854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -42943,7 +42949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -43038,7 +43044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -43129,7 +43135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -43224,7 +43230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -43319,7 +43325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -43410,7 +43416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -43505,7 +43511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -43600,7 +43606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -43695,7 +43701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -43790,7 +43796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -43885,7 +43891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -43980,7 +43986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -44075,7 +44081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -44170,7 +44176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -44265,7 +44271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -44360,7 +44366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -44455,7 +44461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -44550,7 +44556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -44645,7 +44651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -44738,7 +44744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -44833,7 +44839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -44928,7 +44934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -45019,7 +45025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -45114,7 +45120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -45209,7 +45215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -45302,7 +45308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -45393,7 +45399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -45486,7 +45492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -45581,7 +45587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -45676,7 +45682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -45771,7 +45777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -45866,7 +45872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -45961,7 +45967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -46056,7 +46062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -46147,7 +46153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -46242,7 +46248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -46337,7 +46343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -46432,7 +46438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -46527,7 +46533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -46622,7 +46628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -46717,7 +46723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -46812,7 +46818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -46907,7 +46913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -47002,7 +47008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -47097,7 +47103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -47192,7 +47198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -47285,7 +47291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -47380,7 +47386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -47475,7 +47481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -47570,7 +47576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -47665,7 +47671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -47760,7 +47766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -47855,7 +47861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -47950,7 +47956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -48041,7 +48047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -48136,7 +48142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -48231,7 +48237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -48326,7 +48332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -48421,7 +48427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -48512,7 +48518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -48605,7 +48611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -48700,7 +48706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -48795,7 +48801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -48890,7 +48896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -48985,7 +48991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -49080,7 +49086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -49175,7 +49181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -49270,7 +49276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -49365,7 +49371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -49460,7 +49466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -49555,7 +49561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -49650,7 +49656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -49745,7 +49751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -49840,7 +49846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -49935,7 +49941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -50030,7 +50036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -50125,7 +50131,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:31" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/20/spain_defending.xlsx
+++ b/data/league_data/spain/20/spain_defending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D79A29-79D7-434D-8D9F-E91047DFB06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC575453-A94F-0749-A2B9-9E4555552882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="592">
   <si>
     <t>Blocks</t>
   </si>
@@ -1099,9 +1099,6 @@
     <t>Tomás Pina Isla</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Jaume Doménech</t>
   </si>
   <si>
@@ -1793,6 +1790,12 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
   </si>
 </sst>
 </file>
@@ -2659,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7444,7 +7447,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>28</v>
@@ -27962,7 +27965,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>359</v>
+        <v>591</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>76</v>
@@ -28057,7 +28060,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>28</v>
@@ -28150,7 +28153,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>28</v>
@@ -28245,7 +28248,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>76</v>
@@ -28340,7 +28343,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>28</v>
@@ -28435,7 +28438,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>28</v>
@@ -28530,7 +28533,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>76</v>
@@ -28625,7 +28628,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>108</v>
@@ -28720,7 +28723,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>115</v>
@@ -28815,7 +28818,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>66</v>
@@ -28910,7 +28913,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>28</v>
@@ -29005,7 +29008,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>28</v>
@@ -29100,7 +29103,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>344</v>
@@ -29195,7 +29198,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>28</v>
@@ -29290,13 +29293,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>127</v>
@@ -29385,7 +29388,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>28</v>
@@ -29480,7 +29483,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>115</v>
@@ -29575,7 +29578,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>61</v>
@@ -29670,7 +29673,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>28</v>
@@ -29765,7 +29768,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>28</v>
@@ -29860,7 +29863,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>115</v>
@@ -29955,7 +29958,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>28</v>
@@ -30050,7 +30053,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>28</v>
@@ -30145,7 +30148,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>28</v>
@@ -30240,7 +30243,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>76</v>
@@ -30335,7 +30338,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>76</v>
@@ -30430,7 +30433,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>28</v>
@@ -30525,7 +30528,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>84</v>
@@ -30620,7 +30623,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>28</v>
@@ -30715,7 +30718,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>389</v>
+        <v>590</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>28</v>
@@ -30810,7 +30813,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>111</v>
@@ -30905,7 +30908,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>115</v>
@@ -31000,7 +31003,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>69</v>
@@ -31095,7 +31098,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>28</v>
@@ -31190,7 +31193,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>115</v>
@@ -31285,10 +31288,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>88</v>
@@ -31380,7 +31383,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>28</v>
@@ -31475,7 +31478,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>28</v>
@@ -31570,7 +31573,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>209</v>
@@ -31665,7 +31668,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>84</v>
@@ -31760,7 +31763,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>28</v>
@@ -31855,7 +31858,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>28</v>
@@ -31950,7 +31953,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>28</v>
@@ -32045,7 +32048,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>28</v>
@@ -32140,13 +32143,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>50</v>
@@ -32235,7 +32238,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>76</v>
@@ -32330,7 +32333,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>115</v>
@@ -32425,7 +32428,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>28</v>
@@ -32520,7 +32523,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>28</v>
@@ -32615,7 +32618,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>76</v>
@@ -32805,7 +32808,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>28</v>
@@ -32900,7 +32903,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>28</v>
@@ -32991,7 +32994,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>156</v>
@@ -33086,7 +33089,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>28</v>
@@ -33181,7 +33184,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>28</v>
@@ -33276,7 +33279,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>28</v>
@@ -33371,7 +33374,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>28</v>
@@ -33466,7 +33469,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>69</v>
@@ -33561,7 +33564,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>28</v>
@@ -33656,7 +33659,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>115</v>
@@ -33751,7 +33754,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>28</v>
@@ -33846,10 +33849,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>58</v>
@@ -33941,7 +33944,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>28</v>
@@ -34036,7 +34039,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>69</v>
@@ -34131,7 +34134,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>28</v>
@@ -34226,7 +34229,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>66</v>
@@ -34321,7 +34324,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>28</v>
@@ -34416,7 +34419,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>136</v>
@@ -34511,7 +34514,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>28</v>
@@ -34606,7 +34609,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>28</v>
@@ -34701,7 +34704,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>28</v>
@@ -34796,7 +34799,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>74</v>
@@ -34891,7 +34894,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>28</v>
@@ -34986,7 +34989,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>28</v>
@@ -35081,7 +35084,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>28</v>
@@ -35176,7 +35179,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>66</v>
@@ -35271,7 +35274,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>28</v>
@@ -35366,7 +35369,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>28</v>
@@ -35461,7 +35464,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>74</v>
@@ -35556,7 +35559,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>61</v>
@@ -35651,7 +35654,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>28</v>
@@ -35746,7 +35749,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>28</v>
@@ -35936,7 +35939,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>28</v>
@@ -36031,7 +36034,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>61</v>
@@ -36126,7 +36129,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>28</v>
@@ -36221,7 +36224,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>28</v>
@@ -36316,7 +36319,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>69</v>
@@ -36411,7 +36414,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>28</v>
@@ -36506,10 +36509,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>35</v>
@@ -36601,10 +36604,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>38</v>
@@ -36696,7 +36699,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>28</v>
@@ -36791,7 +36794,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>28</v>
@@ -36886,7 +36889,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>28</v>
@@ -36981,7 +36984,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>28</v>
@@ -37076,7 +37079,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>28</v>
@@ -37171,7 +37174,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>28</v>
@@ -37266,7 +37269,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>28</v>
@@ -37361,7 +37364,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>130</v>
@@ -37456,7 +37459,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>28</v>
@@ -37551,7 +37554,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>28</v>
@@ -37646,7 +37649,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>209</v>
@@ -37741,7 +37744,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>28</v>
@@ -37836,7 +37839,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>28</v>
@@ -37931,7 +37934,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>69</v>
@@ -38026,7 +38029,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>66</v>
@@ -38121,7 +38124,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>28</v>
@@ -38216,7 +38219,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>84</v>
@@ -38311,7 +38314,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>28</v>
@@ -38406,13 +38409,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>91</v>
@@ -38501,7 +38504,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>211</v>
@@ -38596,7 +38599,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>76</v>
@@ -38691,7 +38694,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>246</v>
@@ -38786,7 +38789,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>115</v>
@@ -38881,7 +38884,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>28</v>
@@ -38976,7 +38979,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>28</v>
@@ -39071,7 +39074,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>28</v>
@@ -39166,7 +39169,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>74</v>
@@ -39261,7 +39264,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>28</v>
@@ -39356,7 +39359,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>28</v>
@@ -39451,13 +39454,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>91</v>
@@ -39546,7 +39549,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>223</v>
@@ -39641,7 +39644,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>28</v>
@@ -39732,7 +39735,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>28</v>
@@ -39827,7 +39830,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>28</v>
@@ -39922,7 +39925,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>28</v>
@@ -40017,7 +40020,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>344</v>
@@ -40108,7 +40111,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>28</v>
@@ -40203,7 +40206,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>28</v>
@@ -40298,10 +40301,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>35</v>
@@ -40393,7 +40396,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>28</v>
@@ -40488,7 +40491,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>28</v>
@@ -40583,7 +40586,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>28</v>
@@ -40678,7 +40681,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>28</v>
@@ -40773,7 +40776,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>28</v>
@@ -40868,7 +40871,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>28</v>
@@ -40963,7 +40966,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>28</v>
@@ -41058,7 +41061,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>28</v>
@@ -41153,10 +41156,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>35</v>
@@ -41248,7 +41251,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>115</v>
@@ -41343,7 +41346,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>111</v>
@@ -41438,10 +41441,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>58</v>
@@ -41533,7 +41536,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>28</v>
@@ -41628,7 +41631,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>28</v>
@@ -41723,7 +41726,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>61</v>
@@ -41816,7 +41819,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>66</v>
@@ -41911,7 +41914,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>28</v>
@@ -42004,7 +42007,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>209</v>
@@ -42099,7 +42102,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>28</v>
@@ -42289,7 +42292,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>28</v>
@@ -42384,7 +42387,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>344</v>
@@ -42479,7 +42482,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>28</v>
@@ -42574,7 +42577,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>28</v>
@@ -42669,7 +42672,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>28</v>
@@ -42764,7 +42767,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>28</v>
@@ -42859,13 +42862,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>39</v>
@@ -42954,7 +42957,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>28</v>
@@ -43049,7 +43052,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>69</v>
@@ -43140,13 +43143,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>67</v>
@@ -43235,7 +43238,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>69</v>
@@ -43330,7 +43333,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>28</v>
@@ -43421,10 +43424,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>88</v>
@@ -43516,7 +43519,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>28</v>
@@ -43611,7 +43614,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>130</v>
@@ -43706,7 +43709,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>111</v>
@@ -43801,7 +43804,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>28</v>
@@ -43896,7 +43899,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>28</v>
@@ -43991,7 +43994,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>28</v>
@@ -44086,7 +44089,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>28</v>
@@ -44181,7 +44184,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>231</v>
@@ -44276,7 +44279,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>28</v>
@@ -44371,7 +44374,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>28</v>
@@ -44466,7 +44469,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>28</v>
@@ -44561,7 +44564,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>28</v>
@@ -44656,7 +44659,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>28</v>
@@ -44749,7 +44752,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>28</v>
@@ -44844,7 +44847,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>28</v>
@@ -44939,7 +44942,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>28</v>
@@ -45030,7 +45033,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>74</v>
@@ -45125,7 +45128,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>69</v>
@@ -45220,7 +45223,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>28</v>
@@ -45313,7 +45316,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>28</v>
@@ -45404,7 +45407,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>28</v>
@@ -45497,7 +45500,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>66</v>
@@ -45592,7 +45595,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>28</v>
@@ -45687,7 +45690,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>28</v>
@@ -45782,7 +45785,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>28</v>
@@ -45877,7 +45880,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>28</v>
@@ -45972,7 +45975,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>28</v>
@@ -46067,7 +46070,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>28</v>
@@ -46253,7 +46256,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>28</v>
@@ -46348,7 +46351,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>28</v>
@@ -46443,7 +46446,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>74</v>
@@ -46538,13 +46541,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E463" s="3" t="s">
         <v>67</v>
@@ -46633,7 +46636,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>28</v>
@@ -46728,7 +46731,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>28</v>
@@ -46823,7 +46826,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>209</v>
@@ -46918,7 +46921,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>28</v>
@@ -47013,7 +47016,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>28</v>
@@ -47108,7 +47111,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>28</v>
@@ -47203,7 +47206,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>28</v>
@@ -47296,7 +47299,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>115</v>
@@ -47391,7 +47394,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>76</v>
@@ -47486,7 +47489,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>156</v>
@@ -47581,7 +47584,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>28</v>
@@ -47676,7 +47679,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>344</v>
@@ -47866,7 +47869,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>28</v>
@@ -47961,7 +47964,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>28</v>
@@ -48052,7 +48055,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>28</v>
@@ -48147,7 +48150,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>344</v>
@@ -48242,7 +48245,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>28</v>
@@ -48337,7 +48340,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>28</v>
@@ -48432,7 +48435,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>76</v>
@@ -48523,7 +48526,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>28</v>
@@ -48616,7 +48619,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>28</v>
@@ -48711,7 +48714,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>28</v>
@@ -48806,7 +48809,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>28</v>
@@ -48901,7 +48904,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>28</v>
@@ -48996,7 +48999,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>28</v>
@@ -49091,7 +49094,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>28</v>
@@ -49186,7 +49189,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>69</v>
@@ -49281,7 +49284,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>76</v>
@@ -49376,7 +49379,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>28</v>
@@ -49471,10 +49474,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>582</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>56</v>
@@ -49566,7 +49569,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>28</v>
@@ -49661,7 +49664,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>28</v>
@@ -49756,7 +49759,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>66</v>
@@ -49851,7 +49854,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>28</v>
@@ -49946,7 +49949,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>28</v>
@@ -50041,7 +50044,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>28</v>

--- a/data/league_data/spain/20/spain_defending.xlsx
+++ b/data/league_data/spain/20/spain_defending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC575453-A94F-0749-A2B9-9E4555552882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A0D261-0ED4-0847-8BFE-7D0A6D128B67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,9 +379,6 @@
     <t>Yuri Berchiche</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Raphaël Varane</t>
   </si>
   <si>
@@ -1796,6 +1793,9 @@
   </si>
   <si>
     <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2662,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7447,7 +7447,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>28</v>
@@ -7637,7 +7637,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>119</v>
+        <v>591</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>76</v>
@@ -7732,7 +7732,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>69</v>
@@ -7827,7 +7827,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>28</v>
@@ -7922,7 +7922,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>76</v>
@@ -8017,7 +8017,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>28</v>
@@ -8112,7 +8112,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>28</v>
@@ -8121,7 +8121,7 @@
         <v>38</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F58" s="3">
         <v>29</v>
@@ -8207,7 +8207,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>115</v>
@@ -8216,7 +8216,7 @@
         <v>35</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F59" s="3">
         <v>25</v>
@@ -8302,7 +8302,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>28</v>
@@ -8397,10 +8397,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>38</v>
@@ -8492,7 +8492,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>28</v>
@@ -8587,7 +8587,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>28</v>
@@ -8682,7 +8682,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>115</v>
@@ -8777,7 +8777,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>28</v>
@@ -8872,13 +8872,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>93</v>
@@ -8967,7 +8967,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>108</v>
@@ -9062,7 +9062,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>28</v>
@@ -9157,7 +9157,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>28</v>
@@ -9252,7 +9252,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>28</v>
@@ -9261,7 +9261,7 @@
         <v>35</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F70" s="3">
         <v>27</v>
@@ -9347,7 +9347,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>28</v>
@@ -9356,7 +9356,7 @@
         <v>35</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F71" s="3">
         <v>23</v>
@@ -9442,7 +9442,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>28</v>
@@ -9537,7 +9537,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>76</v>
@@ -9632,7 +9632,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>28</v>
@@ -9727,7 +9727,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>49</v>
@@ -9822,7 +9822,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>28</v>
@@ -9831,7 +9831,7 @@
         <v>35</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F76" s="3">
         <v>29</v>
@@ -9917,7 +9917,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>28</v>
@@ -10012,7 +10012,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>69</v>
@@ -10107,7 +10107,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>28</v>
@@ -10202,10 +10202,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>35</v>
@@ -10297,7 +10297,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>66</v>
@@ -10392,7 +10392,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>74</v>
@@ -10487,10 +10487,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>56</v>
@@ -10582,10 +10582,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>35</v>
@@ -10677,7 +10677,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>28</v>
@@ -10772,7 +10772,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>28</v>
@@ -10867,7 +10867,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>69</v>
@@ -10962,7 +10962,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>108</v>
@@ -11057,7 +11057,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>28</v>
@@ -11152,10 +11152,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>56</v>
@@ -11247,13 +11247,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>59</v>
@@ -11342,7 +11342,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>28</v>
@@ -11437,7 +11437,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>28</v>
@@ -11532,7 +11532,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>108</v>
@@ -11627,7 +11627,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>28</v>
@@ -11722,7 +11722,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>28</v>
@@ -11731,7 +11731,7 @@
         <v>38</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F96" s="3">
         <v>30</v>
@@ -11817,7 +11817,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>28</v>
@@ -11912,7 +11912,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>28</v>
@@ -12007,7 +12007,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>115</v>
@@ -12102,13 +12102,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>52</v>
@@ -12197,7 +12197,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>28</v>
@@ -12292,7 +12292,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>28</v>
@@ -12301,7 +12301,7 @@
         <v>29</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F102" s="3">
         <v>35</v>
@@ -12387,7 +12387,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>28</v>
@@ -12482,7 +12482,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>69</v>
@@ -12577,13 +12577,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>30</v>
@@ -12672,7 +12672,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>69</v>
@@ -12767,7 +12767,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>76</v>
@@ -12862,7 +12862,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>28</v>
@@ -12957,10 +12957,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>58</v>
@@ -13052,7 +13052,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>28</v>
@@ -13147,7 +13147,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>28</v>
@@ -13242,7 +13242,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>28</v>
@@ -13337,10 +13337,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>56</v>
@@ -13432,7 +13432,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>28</v>
@@ -13527,7 +13527,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>28</v>
@@ -13536,7 +13536,7 @@
         <v>29</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F115" s="3">
         <v>27</v>
@@ -13622,7 +13622,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>28</v>
@@ -13717,13 +13717,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>50</v>
@@ -13812,10 +13812,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>38</v>
@@ -13907,7 +13907,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>28</v>
@@ -14002,7 +14002,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>28</v>
@@ -14097,7 +14097,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>28</v>
@@ -14192,7 +14192,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>28</v>
@@ -14287,7 +14287,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>28</v>
@@ -14382,7 +14382,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>69</v>
@@ -14477,10 +14477,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>58</v>
@@ -14572,7 +14572,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>28</v>
@@ -14667,7 +14667,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>28</v>
@@ -14762,7 +14762,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>28</v>
@@ -14857,10 +14857,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>35</v>
@@ -14952,10 +14952,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>56</v>
@@ -15047,7 +15047,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>28</v>
@@ -15142,7 +15142,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>28</v>
@@ -15237,7 +15237,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>28</v>
@@ -15332,7 +15332,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>61</v>
@@ -15427,7 +15427,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>28</v>
@@ -15522,7 +15522,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>28</v>
@@ -15617,7 +15617,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>28</v>
@@ -15712,7 +15712,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>28</v>
@@ -15721,7 +15721,7 @@
         <v>56</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F138" s="3">
         <v>30</v>
@@ -15807,7 +15807,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>28</v>
@@ -15902,7 +15902,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>28</v>
@@ -15997,10 +15997,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>58</v>
@@ -16092,7 +16092,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>28</v>
@@ -16187,7 +16187,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>28</v>
@@ -16196,7 +16196,7 @@
         <v>56</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F143" s="3">
         <v>29</v>
@@ -16282,7 +16282,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>74</v>
@@ -16377,7 +16377,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>28</v>
@@ -16472,10 +16472,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>88</v>
@@ -16567,7 +16567,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>76</v>
@@ -16576,7 +16576,7 @@
         <v>35</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F147" s="3">
         <v>25</v>
@@ -16662,10 +16662,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>56</v>
@@ -16757,10 +16757,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>56</v>
@@ -16852,7 +16852,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>76</v>
@@ -16947,7 +16947,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>76</v>
@@ -17042,7 +17042,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>28</v>
@@ -17051,7 +17051,7 @@
         <v>35</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F152" s="3">
         <v>23</v>
@@ -17137,10 +17137,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>29</v>
@@ -17232,7 +17232,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>28</v>
@@ -17327,7 +17327,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>66</v>
@@ -17422,7 +17422,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>66</v>
@@ -17517,7 +17517,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>28</v>
@@ -17612,7 +17612,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>115</v>
@@ -17707,7 +17707,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>28</v>
@@ -17802,10 +17802,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>38</v>
@@ -17897,10 +17897,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>58</v>
@@ -17992,7 +17992,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>111</v>
@@ -18087,7 +18087,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>28</v>
@@ -18182,7 +18182,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>28</v>
@@ -18191,7 +18191,7 @@
         <v>56</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F164" s="3">
         <v>30</v>
@@ -18277,7 +18277,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>28</v>
@@ -18372,7 +18372,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>76</v>
@@ -18467,16 +18467,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F167" s="3">
         <v>22</v>
@@ -18562,10 +18562,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>56</v>
@@ -18657,7 +18657,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>74</v>
@@ -18752,7 +18752,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>28</v>
@@ -18847,7 +18847,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>61</v>
@@ -18942,10 +18942,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>35</v>
@@ -19037,10 +19037,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>35</v>
@@ -19132,7 +19132,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>28</v>
@@ -19141,7 +19141,7 @@
         <v>56</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F174" s="3">
         <v>33</v>
@@ -19227,10 +19227,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>56</v>
@@ -19322,7 +19322,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>28</v>
@@ -19417,10 +19417,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>58</v>
@@ -19512,7 +19512,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>28</v>
@@ -19607,7 +19607,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>28</v>
@@ -19702,16 +19702,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F180" s="3">
         <v>28</v>
@@ -19797,16 +19797,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F181" s="3">
         <v>25</v>
@@ -19892,7 +19892,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>28</v>
@@ -19987,7 +19987,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>28</v>
@@ -20082,7 +20082,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>28</v>
@@ -20091,7 +20091,7 @@
         <v>58</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F184" s="3">
         <v>21</v>
@@ -20177,16 +20177,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F185" s="3">
         <v>30</v>
@@ -20272,7 +20272,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>69</v>
@@ -20367,7 +20367,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>28</v>
@@ -20462,7 +20462,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>74</v>
@@ -20557,7 +20557,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>28</v>
@@ -20652,7 +20652,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>28</v>
@@ -20661,7 +20661,7 @@
         <v>35</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F190" s="3">
         <v>29</v>
@@ -20747,7 +20747,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>28</v>
@@ -20842,7 +20842,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>28</v>
@@ -20937,7 +20937,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>28</v>
@@ -21032,7 +21032,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>74</v>
@@ -21127,16 +21127,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F195" s="3">
         <v>25</v>
@@ -21222,7 +21222,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>28</v>
@@ -21317,16 +21317,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F197" s="3">
         <v>30</v>
@@ -21412,7 +21412,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>28</v>
@@ -21507,7 +21507,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>28</v>
@@ -21602,7 +21602,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>28</v>
@@ -21697,7 +21697,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>108</v>
@@ -21792,7 +21792,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>115</v>
@@ -21887,10 +21887,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>56</v>
@@ -21982,7 +21982,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>69</v>
@@ -22077,7 +22077,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>28</v>
@@ -22172,7 +22172,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>28</v>
@@ -22267,7 +22267,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>28</v>
@@ -22362,7 +22362,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>28</v>
@@ -22457,7 +22457,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>74</v>
@@ -22552,7 +22552,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>28</v>
@@ -22647,7 +22647,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>66</v>
@@ -22742,10 +22742,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>88</v>
@@ -22837,7 +22837,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>28</v>
@@ -22932,7 +22932,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>28</v>
@@ -23027,7 +23027,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>115</v>
@@ -23122,10 +23122,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>56</v>
@@ -23217,7 +23217,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>28</v>
@@ -23312,7 +23312,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>28</v>
@@ -23407,7 +23407,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>28</v>
@@ -23416,7 +23416,7 @@
         <v>56</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F219" s="3">
         <v>25</v>
@@ -23502,7 +23502,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>28</v>
@@ -23597,13 +23597,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>62</v>
@@ -23692,7 +23692,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>115</v>
@@ -23787,10 +23787,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>56</v>
@@ -23882,7 +23882,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>28</v>
@@ -23977,7 +23977,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>28</v>
@@ -24072,7 +24072,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>69</v>
@@ -24167,7 +24167,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>28</v>
@@ -24260,7 +24260,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>28</v>
@@ -24355,7 +24355,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>28</v>
@@ -24450,7 +24450,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>28</v>
@@ -24459,7 +24459,7 @@
         <v>56</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F230" s="3">
         <v>28</v>
@@ -24545,10 +24545,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>56</v>
@@ -24640,7 +24640,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>28</v>
@@ -24735,7 +24735,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>74</v>
@@ -24830,7 +24830,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>74</v>
@@ -24925,10 +24925,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>35</v>
@@ -25020,7 +25020,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>28</v>
@@ -25115,10 +25115,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>56</v>
@@ -25210,7 +25210,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>69</v>
@@ -25305,10 +25305,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>38</v>
@@ -25400,7 +25400,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>28</v>
@@ -25495,7 +25495,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>28</v>
@@ -25590,10 +25590,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>88</v>
@@ -25685,7 +25685,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>28</v>
@@ -25780,7 +25780,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>28</v>
@@ -25875,7 +25875,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>28</v>
@@ -25970,7 +25970,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>28</v>
@@ -26065,7 +26065,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>28</v>
@@ -26160,7 +26160,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>69</v>
@@ -26255,7 +26255,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>115</v>
@@ -26350,7 +26350,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>28</v>
@@ -26445,16 +26445,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F251" s="3">
         <v>22</v>
@@ -26540,10 +26540,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>35</v>
@@ -26635,7 +26635,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>28</v>
@@ -26730,7 +26730,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>28</v>
@@ -26825,16 +26825,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F255" s="3">
         <v>22</v>
@@ -26920,7 +26920,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>54</v>
@@ -27015,7 +27015,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>28</v>
@@ -27110,7 +27110,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>28</v>
@@ -27205,7 +27205,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>76</v>
@@ -27300,7 +27300,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>28</v>
@@ -27395,10 +27395,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>56</v>
@@ -27490,7 +27490,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>28</v>
@@ -27585,7 +27585,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>28</v>
@@ -27680,7 +27680,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>28</v>
@@ -27775,7 +27775,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>28</v>
@@ -27870,7 +27870,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>28</v>
@@ -27879,7 +27879,7 @@
         <v>56</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F266" s="3">
         <v>31</v>
@@ -27965,7 +27965,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>76</v>
@@ -28060,7 +28060,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>28</v>
@@ -28153,7 +28153,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>28</v>
@@ -28248,7 +28248,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>76</v>
@@ -28343,7 +28343,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>28</v>
@@ -28438,7 +28438,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>28</v>
@@ -28447,7 +28447,7 @@
         <v>56</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F272" s="3">
         <v>25</v>
@@ -28533,7 +28533,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>76</v>
@@ -28628,7 +28628,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>108</v>
@@ -28637,7 +28637,7 @@
         <v>56</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F274" s="3">
         <v>29</v>
@@ -28723,7 +28723,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>115</v>
@@ -28818,7 +28818,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>66</v>
@@ -28913,7 +28913,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>28</v>
@@ -29008,7 +29008,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>28</v>
@@ -29103,10 +29103,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>38</v>
@@ -29198,7 +29198,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>28</v>
@@ -29293,16 +29293,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F281" s="3">
         <v>23</v>
@@ -29388,7 +29388,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>28</v>
@@ -29483,7 +29483,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>115</v>
@@ -29492,7 +29492,7 @@
         <v>38</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F283" s="3">
         <v>28</v>
@@ -29578,7 +29578,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>61</v>
@@ -29673,7 +29673,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>28</v>
@@ -29768,7 +29768,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>28</v>
@@ -29863,7 +29863,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>115</v>
@@ -29872,7 +29872,7 @@
         <v>35</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F287" s="3">
         <v>25</v>
@@ -29958,7 +29958,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>28</v>
@@ -30053,7 +30053,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>28</v>
@@ -30148,7 +30148,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>28</v>
@@ -30243,7 +30243,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>76</v>
@@ -30338,7 +30338,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>76</v>
@@ -30433,7 +30433,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>28</v>
@@ -30528,7 +30528,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>84</v>
@@ -30623,7 +30623,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>28</v>
@@ -30718,7 +30718,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>28</v>
@@ -30813,7 +30813,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>111</v>
@@ -30908,7 +30908,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>115</v>
@@ -31003,7 +31003,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>69</v>
@@ -31098,7 +31098,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>28</v>
@@ -31193,7 +31193,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>115</v>
@@ -31288,10 +31288,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>88</v>
@@ -31383,13 +31383,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>52</v>
@@ -31478,7 +31478,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>28</v>
@@ -31487,7 +31487,7 @@
         <v>56</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F304" s="3">
         <v>26</v>
@@ -31573,10 +31573,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>35</v>
@@ -31668,7 +31668,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>84</v>
@@ -31763,7 +31763,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>28</v>
@@ -31858,7 +31858,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>28</v>
@@ -31953,7 +31953,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>28</v>
@@ -32048,13 +32048,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E310" s="3" t="s">
         <v>64</v>
@@ -32143,13 +32143,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>50</v>
@@ -32238,7 +32238,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>76</v>
@@ -32333,7 +32333,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>115</v>
@@ -32428,7 +32428,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>28</v>
@@ -32523,7 +32523,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>28</v>
@@ -32618,7 +32618,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>76</v>
@@ -32719,7 +32719,7 @@
         <v>28</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>64</v>
@@ -32808,7 +32808,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>28</v>
@@ -32903,7 +32903,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>28</v>
@@ -32912,7 +32912,7 @@
         <v>29</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F319" s="3">
         <v>21</v>
@@ -32994,10 +32994,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>38</v>
@@ -33089,7 +33089,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>28</v>
@@ -33184,7 +33184,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>28</v>
@@ -33279,7 +33279,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>28</v>
@@ -33288,7 +33288,7 @@
         <v>35</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F323" s="3">
         <v>23</v>
@@ -33374,7 +33374,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>28</v>
@@ -33469,7 +33469,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>69</v>
@@ -33564,7 +33564,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>28</v>
@@ -33659,7 +33659,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>115</v>
@@ -33754,7 +33754,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>28</v>
@@ -33849,10 +33849,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>58</v>
@@ -33944,7 +33944,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>28</v>
@@ -34039,7 +34039,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>69</v>
@@ -34134,7 +34134,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>28</v>
@@ -34229,7 +34229,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>66</v>
@@ -34324,7 +34324,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>28</v>
@@ -34419,10 +34419,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>88</v>
@@ -34514,7 +34514,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>28</v>
@@ -34609,7 +34609,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>28</v>
@@ -34704,7 +34704,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>28</v>
@@ -34799,7 +34799,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>74</v>
@@ -34894,7 +34894,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>28</v>
@@ -34989,7 +34989,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>28</v>
@@ -34998,7 +34998,7 @@
         <v>58</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F341" s="3">
         <v>29</v>
@@ -35084,7 +35084,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>28</v>
@@ -35093,7 +35093,7 @@
         <v>35</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F342" s="3">
         <v>22</v>
@@ -35179,7 +35179,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>66</v>
@@ -35274,7 +35274,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>28</v>
@@ -35369,7 +35369,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>28</v>
@@ -35378,7 +35378,7 @@
         <v>58</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F345" s="3">
         <v>29</v>
@@ -35464,7 +35464,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>74</v>
@@ -35559,7 +35559,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>61</v>
@@ -35654,7 +35654,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>28</v>
@@ -35663,7 +35663,7 @@
         <v>38</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F348" s="3">
         <v>29</v>
@@ -35749,7 +35749,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>28</v>
@@ -35844,10 +35844,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>38</v>
@@ -35939,7 +35939,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>28</v>
@@ -35948,7 +35948,7 @@
         <v>29</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F351" s="3">
         <v>33</v>
@@ -36034,7 +36034,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>61</v>
@@ -36043,7 +36043,7 @@
         <v>56</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F352" s="3">
         <v>30</v>
@@ -36129,7 +36129,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>28</v>
@@ -36224,7 +36224,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>28</v>
@@ -36319,7 +36319,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>69</v>
@@ -36328,7 +36328,7 @@
         <v>56</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F355" s="3">
         <v>26</v>
@@ -36414,7 +36414,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>28</v>
@@ -36509,10 +36509,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>35</v>
@@ -36604,10 +36604,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>38</v>
@@ -36699,7 +36699,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>28</v>
@@ -36794,13 +36794,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E360" s="3" t="s">
         <v>64</v>
@@ -36889,7 +36889,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>28</v>
@@ -36984,7 +36984,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>28</v>
@@ -37079,7 +37079,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>28</v>
@@ -37174,7 +37174,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>28</v>
@@ -37269,7 +37269,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>28</v>
@@ -37364,10 +37364,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>56</v>
@@ -37459,7 +37459,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>28</v>
@@ -37554,7 +37554,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>28</v>
@@ -37649,10 +37649,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>88</v>
@@ -37744,7 +37744,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>28</v>
@@ -37839,7 +37839,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>28</v>
@@ -37934,7 +37934,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>69</v>
@@ -38029,7 +38029,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>66</v>
@@ -38124,7 +38124,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>28</v>
@@ -38219,7 +38219,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>84</v>
@@ -38314,7 +38314,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>28</v>
@@ -38409,13 +38409,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>91</v>
@@ -38504,10 +38504,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>56</v>
@@ -38599,7 +38599,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>76</v>
@@ -38694,10 +38694,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>56</v>
@@ -38789,7 +38789,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>115</v>
@@ -38884,7 +38884,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>28</v>
@@ -38893,7 +38893,7 @@
         <v>58</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F382" s="3">
         <v>18</v>
@@ -38979,7 +38979,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>28</v>
@@ -39074,7 +39074,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>28</v>
@@ -39083,7 +39083,7 @@
         <v>58</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F384" s="3">
         <v>18</v>
@@ -39169,7 +39169,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>74</v>
@@ -39264,7 +39264,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>28</v>
@@ -39359,7 +39359,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>28</v>
@@ -39454,13 +39454,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>91</v>
@@ -39549,16 +39549,16 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F389" s="3">
         <v>25</v>
@@ -39644,7 +39644,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>28</v>
@@ -39735,7 +39735,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>28</v>
@@ -39830,7 +39830,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>28</v>
@@ -39925,7 +39925,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>28</v>
@@ -40020,10 +40020,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>29</v>
@@ -40111,7 +40111,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>28</v>
@@ -40206,7 +40206,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>28</v>
@@ -40301,10 +40301,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>35</v>
@@ -40396,7 +40396,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>28</v>
@@ -40491,7 +40491,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>28</v>
@@ -40586,7 +40586,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>28</v>
@@ -40681,7 +40681,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>28</v>
@@ -40776,7 +40776,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>28</v>
@@ -40871,13 +40871,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>99</v>
@@ -40966,7 +40966,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>28</v>
@@ -41061,7 +41061,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>28</v>
@@ -41156,10 +41156,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>35</v>
@@ -41251,7 +41251,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>115</v>
@@ -41346,7 +41346,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>111</v>
@@ -41441,10 +41441,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>58</v>
@@ -41536,7 +41536,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>28</v>
@@ -41631,7 +41631,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>28</v>
@@ -41726,7 +41726,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>61</v>
@@ -41819,7 +41819,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>66</v>
@@ -41914,7 +41914,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>28</v>
@@ -42007,10 +42007,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>56</v>
@@ -42102,7 +42102,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>28</v>
@@ -42197,10 +42197,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>88</v>
@@ -42292,7 +42292,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>28</v>
@@ -42387,10 +42387,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>56</v>
@@ -42482,7 +42482,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>28</v>
@@ -42577,7 +42577,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>28</v>
@@ -42672,7 +42672,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>28</v>
@@ -42767,7 +42767,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>28</v>
@@ -42862,13 +42862,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>39</v>
@@ -42957,7 +42957,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>28</v>
@@ -43052,7 +43052,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>69</v>
@@ -43143,13 +43143,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>67</v>
@@ -43238,7 +43238,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>69</v>
@@ -43333,7 +43333,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>28</v>
@@ -43424,10 +43424,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>525</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>88</v>
@@ -43519,7 +43519,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>28</v>
@@ -43614,10 +43614,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>35</v>
@@ -43709,7 +43709,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>111</v>
@@ -43804,7 +43804,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>28</v>
@@ -43899,7 +43899,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>28</v>
@@ -43994,7 +43994,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>28</v>
@@ -44003,7 +44003,7 @@
         <v>58</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F436" s="3">
         <v>24</v>
@@ -44089,7 +44089,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>28</v>
@@ -44184,10 +44184,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>56</v>
@@ -44279,7 +44279,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>28</v>
@@ -44374,7 +44374,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>28</v>
@@ -44469,7 +44469,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>28</v>
@@ -44564,7 +44564,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>28</v>
@@ -44573,7 +44573,7 @@
         <v>56</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F442" s="3">
         <v>22</v>
@@ -44659,7 +44659,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>28</v>
@@ -44752,7 +44752,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>28</v>
@@ -44847,7 +44847,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>28</v>
@@ -44942,7 +44942,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>28</v>
@@ -45033,7 +45033,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>74</v>
@@ -45128,7 +45128,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>69</v>
@@ -45223,7 +45223,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>28</v>
@@ -45316,7 +45316,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>28</v>
@@ -45325,7 +45325,7 @@
         <v>29</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F450" s="3">
         <v>22</v>
@@ -45407,7 +45407,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>28</v>
@@ -45500,7 +45500,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>66</v>
@@ -45595,7 +45595,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>28</v>
@@ -45690,7 +45690,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>28</v>
@@ -45785,7 +45785,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>28</v>
@@ -45880,7 +45880,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>28</v>
@@ -45975,7 +45975,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>28</v>
@@ -46070,7 +46070,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>28</v>
@@ -46256,7 +46256,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>28</v>
@@ -46351,7 +46351,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>28</v>
@@ -46446,7 +46446,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>74</v>
@@ -46541,13 +46541,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E463" s="3" t="s">
         <v>67</v>
@@ -46636,7 +46636,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>28</v>
@@ -46731,7 +46731,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>28</v>
@@ -46740,7 +46740,7 @@
         <v>35</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F465" s="3">
         <v>21</v>
@@ -46826,10 +46826,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>38</v>
@@ -46921,7 +46921,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>28</v>
@@ -47016,7 +47016,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>28</v>
@@ -47025,7 +47025,7 @@
         <v>35</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F468" s="3">
         <v>24</v>
@@ -47111,7 +47111,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>28</v>
@@ -47206,7 +47206,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>28</v>
@@ -47299,7 +47299,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>115</v>
@@ -47394,7 +47394,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>76</v>
@@ -47489,10 +47489,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>56</v>
@@ -47584,7 +47584,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>28</v>
@@ -47679,10 +47679,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>58</v>
@@ -47774,7 +47774,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>76</v>
@@ -47869,7 +47869,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>28</v>
@@ -47964,7 +47964,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>28</v>
@@ -48055,7 +48055,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>28</v>
@@ -48064,7 +48064,7 @@
         <v>58</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F479" s="3">
         <v>21</v>
@@ -48150,10 +48150,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>35</v>
@@ -48245,7 +48245,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>28</v>
@@ -48340,7 +48340,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>28</v>
@@ -48435,7 +48435,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>76</v>
@@ -48526,7 +48526,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>28</v>
@@ -48619,7 +48619,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>28</v>
@@ -48714,7 +48714,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>28</v>
@@ -48809,7 +48809,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>28</v>
@@ -48904,7 +48904,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>28</v>
@@ -48999,7 +48999,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>28</v>
@@ -49094,7 +49094,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>28</v>
@@ -49189,7 +49189,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>69</v>
@@ -49284,7 +49284,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>76</v>
@@ -49379,7 +49379,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>28</v>
@@ -49474,16 +49474,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>581</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F494" s="3">
         <v>19</v>
@@ -49569,7 +49569,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>28</v>
@@ -49664,7 +49664,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>28</v>
@@ -49759,7 +49759,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>66</v>
@@ -49854,7 +49854,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>28</v>
@@ -49949,7 +49949,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>28</v>
@@ -50044,7 +50044,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>28</v>
@@ -50053,7 +50053,7 @@
         <v>38</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F500" s="3">
         <v>18</v>
